--- a/Documents/3. 설계/2. 스토리보드/StoryBoard_회원관리, 상품관리-2.xlsx
+++ b/Documents/3. 설계/2. 스토리보드/StoryBoard_회원관리, 상품관리-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkdlf\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenTeamProjectFirst\Documents\3. 설계\2. 스토리보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1C2DA-B0D5-4FD2-A718-C80E1DB4832A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D996AE1-A148-4014-BF67-A3F83FA62AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{47FF7444-47B1-4673-B3A7-605210B647C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{47FF7444-47B1-4673-B3A7-605210B647C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>찜하기/장바구니/바로구매 (재고 없을 시 구매불가만 뜸)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 상세설명(이미지로 표시 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +319,10 @@
   </si>
   <si>
     <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니/바로구매 (재고 없을 시 구매불가만 뜸)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,6 +823,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,32 +912,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,15 +940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,30 +951,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,14 +960,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3662,454 +3662,454 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="37"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4139,546 +4139,546 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="23"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
     </row>
     <row r="6" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="44"/>
+      <c r="L6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="44"/>
+      <c r="N6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30" t="s">
+      <c r="O6" s="44"/>
+      <c r="P6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30" t="s">
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="31"/>
+      <c r="S6" s="45"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="20"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="37"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="37"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="23"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
     </row>
     <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="26"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="40"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
     </row>
     <row r="27" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="26"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4716,25 +4716,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="17" t="s">
         <v>12</v>
       </c>
@@ -4746,549 +4746,541 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="23"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="28" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="47"/>
+      <c r="M9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="32" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="32" t="s">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="32" t="s">
+      <c r="R9" s="47"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="32" t="s">
+      <c r="T9" s="47"/>
+      <c r="U9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="29"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="20"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="23"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="23"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="37"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="23"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="37"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="23"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="37"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="23"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="23"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="23"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="23"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="37"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="23"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="23"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
     </row>
     <row r="22" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="23"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="37"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="23"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="37"/>
     </row>
     <row r="24" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="23"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="37"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="23"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="37"/>
     </row>
     <row r="26" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="26"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="40"/>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="20"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="34"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="23"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="37"/>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="23"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="37"/>
     </row>
     <row r="30" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="26"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="H10:V26"/>
-    <mergeCell ref="E17:G26"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="E27:V30"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="H9:J9"/>
@@ -5303,6 +5295,14 @@
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="G5:S8"/>
+    <mergeCell ref="T6:V8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="H10:V26"/>
+    <mergeCell ref="E17:G26"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5328,25 +5328,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="17" t="s">
         <v>12</v>
       </c>
@@ -5358,100 +5358,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="23"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="27" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="27" t="s">
+      <c r="L9" s="43"/>
+      <c r="M9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="27" t="s">
+      <c r="N9" s="43"/>
+      <c r="O9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="27" t="s">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="27" t="s">
+      <c r="R9" s="43"/>
+      <c r="S9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="27" t="s">
+      <c r="T9" s="43"/>
+      <c r="U9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="29"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="4"/>
@@ -5477,10 +5477,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -5560,16 +5560,16 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="20" t="s">
         <v>32</v>
       </c>
       <c r="Q15" s="11"/>
@@ -5604,14 +5604,14 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
@@ -5646,14 +5646,14 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
@@ -5688,14 +5688,14 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
@@ -5730,16 +5730,16 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="22"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="36" t="s">
+      <c r="P23" s="20" t="s">
         <v>33</v>
       </c>
       <c r="Q23" s="11"/>
@@ -5754,14 +5754,14 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="10"/>
       <c r="L24" s="17"/>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="22"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="11"/>
@@ -5776,12 +5776,12 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="11"/>
@@ -5796,14 +5796,14 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="22"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
@@ -5818,14 +5818,14 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="22" t="s">
+      <c r="L27" s="21"/>
+      <c r="M27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="22"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="11"/>
@@ -5900,14 +5900,14 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="36"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="34"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="11"/>
@@ -5925,9 +5925,9 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="11"/>
@@ -5945,9 +5945,9 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="26"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="11"/>
@@ -6002,11 +6002,11 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="10"/>
       <c r="M36" s="17"/>
       <c r="N36" s="10"/>
@@ -6023,8 +6023,8 @@
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -6111,10 +6111,10 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="18" t="s">
+      <c r="P41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="20"/>
+      <c r="Q41" s="34"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
@@ -6133,8 +6133,8 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="26"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="40"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
@@ -6202,94 +6202,105 @@
       <c r="V45" s="11"/>
     </row>
     <row r="46" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="20"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="34"/>
     </row>
     <row r="47" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="23"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="37"/>
     </row>
     <row r="48" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="23"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="37"/>
     </row>
     <row r="49" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="26"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="P41:Q42"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="L31:N33"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:S8"/>
+    <mergeCell ref="T6:V8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E46:V49"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="L25:N25"/>
@@ -6306,22 +6317,11 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E46:V49"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:S8"/>
-    <mergeCell ref="T6:V8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="P41:Q42"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="L31:N33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6346,25 +6346,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="17" t="s">
         <v>12</v>
       </c>
@@ -6376,100 +6376,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="23"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="47"/>
+      <c r="M9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="32" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="32" t="s">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="32" t="s">
+      <c r="R9" s="47"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="32" t="s">
+      <c r="T9" s="47"/>
+      <c r="U9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="29"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E10" s="9"/>
@@ -6517,10 +6517,10 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="29"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -6558,7 +6558,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="34"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -6579,10 +6579,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="22"/>
+      <c r="J15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="36"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -6625,14 +6625,14 @@
         <v>24</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="20"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="11"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -6651,8 +6651,8 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="23"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="11"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -6666,15 +6666,15 @@
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="10"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="26"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="40"/>
       <c r="R19" s="11"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -6727,10 +6727,10 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="20"/>
+      <c r="J22" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="34"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -6749,8 +6749,8 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -6848,7 +6848,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -6869,11 +6869,11 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="J29" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -6912,17 +6912,17 @@
       <c r="H31" s="10"/>
       <c r="I31" s="9"/>
       <c r="J31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="10"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q31" s="20"/>
+      <c r="P31" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="34"/>
       <c r="R31" s="11"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -6941,8 +6941,8 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="23"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="37"/>
       <c r="R32" s="11"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
@@ -6956,15 +6956,15 @@
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="10"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="43"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="26"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="40"/>
       <c r="R33" s="11"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
@@ -7152,100 +7152,89 @@
       <c r="V42" s="14"/>
     </row>
     <row r="43" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="20"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="34"/>
     </row>
     <row r="44" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="23"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="37"/>
     </row>
     <row r="45" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="23"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="37"/>
     </row>
     <row r="46" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="26"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="P31:Q33"/>
-    <mergeCell ref="E43:V46"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L17:N17"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="E5:F6"/>
@@ -7258,6 +7247,17 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="P31:Q33"/>
+    <mergeCell ref="E43:V46"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="L31:N31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7282,25 +7282,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="17" t="s">
         <v>12</v>
       </c>
@@ -7312,100 +7312,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="23"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="47"/>
+      <c r="M9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="32" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="32" t="s">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="32" t="s">
+      <c r="R9" s="47"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="32" t="s">
+      <c r="T9" s="47"/>
+      <c r="U9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="29"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
@@ -7432,10 +7432,10 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="29"/>
+      <c r="I11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="43"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -7473,7 +7473,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -7494,13 +7494,13 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="29"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -7536,13 +7536,13 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -7598,13 +7598,13 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="22"/>
+      <c r="I19" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="36"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="29"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -7660,14 +7660,14 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="11"/>
@@ -7685,9 +7685,9 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="11"/>
@@ -7705,9 +7705,9 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="11"/>
@@ -7762,20 +7762,20 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="P27" s="20"/>
+      <c r="P27" s="34"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -7788,14 +7788,14 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="26"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="26"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="40"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -7924,104 +7924,89 @@
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="20"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="34"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="23"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="37"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="23"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="37"/>
     </row>
     <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="26"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L22:N24"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="E35:V38"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="G5:S8"/>
     <mergeCell ref="T6:V8"/>
@@ -8032,6 +8017,21 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="E35:V38"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L22:N24"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8055,25 +8055,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="17" t="s">
         <v>12</v>
       </c>
@@ -8085,100 +8085,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="23"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="47"/>
+      <c r="M9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="32" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="32" t="s">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="32" t="s">
+      <c r="R9" s="47"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="32" t="s">
+      <c r="T9" s="47"/>
+      <c r="U9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="29"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
@@ -8205,10 +8205,10 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="29"/>
+      <c r="I11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="43"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -8246,7 +8246,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -8267,13 +8267,13 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="29"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -8309,13 +8309,13 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -8336,7 +8336,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="17"/>
       <c r="M17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -8373,12 +8373,12 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="22"/>
+      <c r="I19" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="36"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="35"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="16"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -8400,7 +8400,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="17"/>
       <c r="M20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -8437,14 +8437,14 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="11"/>
@@ -8462,9 +8462,9 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="11"/>
@@ -8482,9 +8482,9 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="11"/>
@@ -8539,15 +8539,15 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="20"/>
+      <c r="M27" s="34"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -8563,11 +8563,11 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="26"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -8699,100 +8699,89 @@
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="20"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="34"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="23"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="37"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="23"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="37"/>
     </row>
     <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="26"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E35:V38"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:N24"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="E5:F6"/>
@@ -8805,6 +8794,17 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E35:V38"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:N24"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="L27:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8829,25 +8829,25 @@
   <sheetData>
     <row r="4" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="17" t="s">
         <v>12</v>
       </c>
@@ -8859,100 +8859,100 @@
       </c>
     </row>
     <row r="6" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="23"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32" t="s">
+      <c r="L9" s="47"/>
+      <c r="M9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="32" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="32" t="s">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="32" t="s">
+      <c r="R9" s="47"/>
+      <c r="S9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="32" t="s">
+      <c r="T9" s="47"/>
+      <c r="U9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="29"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
@@ -8979,10 +8979,10 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="29"/>
+      <c r="I11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="43"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -9020,7 +9020,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -9041,14 +9041,14 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="11"/>
@@ -9083,14 +9083,14 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="11"/>
@@ -9149,10 +9149,10 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="20"/>
+      <c r="M19" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="34"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
@@ -9171,8 +9171,8 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="26"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
@@ -9463,98 +9463,89 @@
       <c r="V34" s="14"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="20"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="34"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="23"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="37"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="23"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="37"/>
     </row>
     <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="26"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E35:V38"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="E5:F6"/>
     <mergeCell ref="G5:S8"/>
     <mergeCell ref="T6:V8"/>
@@ -9565,6 +9556,15 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="E35:V38"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9577,761 +9577,761 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A59073-08B3-4B23-A5AB-A1CF6341FCFB}">
   <dimension ref="E3:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="20"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
     </row>
     <row r="5" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E5" s="21"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="23"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="37"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E6" s="21"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="23"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="37"/>
     </row>
     <row r="7" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="40"/>
     </row>
     <row r="8" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="24"/>
+      <c r="K8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42" t="s">
+      <c r="L8" s="25"/>
+      <c r="M8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="25"/>
+      <c r="O8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30" t="s">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30" t="s">
+      <c r="R8" s="44"/>
+      <c r="S8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30" t="s">
+      <c r="T8" s="44"/>
+      <c r="U8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="31"/>
+      <c r="V8" s="45"/>
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="46" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="48"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54"/>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52" t="s">
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="48">
         <v>1000000695</v>
       </c>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="54"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="54"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="57" t="s">
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="V15" s="58" t="s">
+      <c r="V15" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="59" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="53" t="s">
+      <c r="P16" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="54"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
     </row>
     <row r="17" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="24" t="s">
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="40"/>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E18" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="26"/>
-    </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="64"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="52"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E19" s="21"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="23"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="37"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E20" s="21"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="23"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="37"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E21" s="21"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="23"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="37"/>
     </row>
     <row r="22" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="40"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E23" s="9"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
       <c r="V23" s="11"/>
     </row>
     <row r="24" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="9"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E25" s="9"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="T25" s="20"/>
-      <c r="U25" s="65"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T25" s="34"/>
+      <c r="U25" s="31"/>
       <c r="V25" s="11"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E26" s="9"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="65"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="31"/>
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="9"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="65"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="31"/>
       <c r="V27" s="11"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E28" s="9"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
       <c r="V28" s="11"/>
     </row>
     <row r="29" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="9"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
       <c r="V29" s="11"/>
     </row>
     <row r="30" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E30" s="9"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
       <c r="V30" s="11"/>
     </row>
     <row r="31" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="9"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="36" t="s">
+      <c r="F31" s="31"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="T31" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="T31" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U31" s="65"/>
+      <c r="U31" s="31"/>
       <c r="V31" s="11"/>
     </row>
     <row r="32" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="9"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
       <c r="V32" s="11"/>
     </row>
     <row r="33" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="9"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
       <c r="V33" s="11"/>
     </row>
     <row r="34" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="9"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
       <c r="V34" s="11"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E35" s="9"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
       <c r="V35" s="11"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E36" s="9"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
       <c r="V36" s="11"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E37" s="9"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
       <c r="V37" s="11"/>
     </row>
     <row r="38" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10355,104 +10355,89 @@
       <c r="V38" s="14"/>
     </row>
     <row r="39" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="23"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="37"/>
     </row>
     <row r="40" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E40" s="21"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="23"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="37"/>
     </row>
     <row r="41" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E41" s="21"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="23"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="37"/>
     </row>
     <row r="42" spans="5:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="26"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="P16:V16"/>
-    <mergeCell ref="O17:V17"/>
-    <mergeCell ref="E18:V22"/>
-    <mergeCell ref="E39:V42"/>
-    <mergeCell ref="G25:Q27"/>
-    <mergeCell ref="S25:T27"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="P13:V13"/>
     <mergeCell ref="P14:V14"/>
     <mergeCell ref="E4:V7"/>
     <mergeCell ref="O8:P8"/>
@@ -10461,9 +10446,25 @@
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="E9:N17"/>
     <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="P13:V13"/>
+    <mergeCell ref="E39:V42"/>
+    <mergeCell ref="G25:Q27"/>
+    <mergeCell ref="S25:T27"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="P16:V16"/>
+    <mergeCell ref="O17:V17"/>
+    <mergeCell ref="E18:V22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>